--- a/report_template/decayReport.xlsx
+++ b/report_template/decayReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\SensorManager\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF56B6D-600E-4432-BB56-E0EEFB7E2D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9994D03D-9D24-48E1-A2F0-46D175B83852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="808" firstSheet="3" activeTab="4" xr2:uid="{C88833C2-A30C-4356-8FF2-473298530AD8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="6" xr2:uid="{C88833C2-A30C-4356-8FF2-473298530AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="1.匯入_感測器小時值(基隆測站上)" sheetId="16" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
   <si>
     <r>
       <rPr>
@@ -359,6 +359,18 @@
   </si>
   <si>
     <t>基隆</t>
+  </si>
+  <si>
+    <t>K0AL99</t>
+  </si>
+  <si>
+    <t>K1AL99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*全200型感測器之小時濃度平均與標準測站之趨勢圖
+*時間範圍為一年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -688,6 +700,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -724,6 +739,15 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -740,18 +764,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2111,6 +2123,736 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'6.全區域200型(1群)'!$A$1:$G$1</c:f>
+          <c:strCache>
+            <c:ptCount val="7"/>
+            <c:pt idx="0">
+              <c:v>基隆全區域SAQ-200濃度趨勢圖</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6.全區域200型(1群)'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基隆</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6.全區域200型(1群)'!$A$3:$A$8762</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8760"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6.全區域200型(1群)'!$B$3:$B$8762</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8760"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6355-44A3-808E-95983550177B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'6.全區域200型(1群)'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K0AL99</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'6.全區域200型(1群)'!$A$3:$A$8762</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8760"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'6.全區域200型(1群)'!$C$3:$C$8762</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8760"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6355-44A3-808E-95983550177B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1721622576"/>
+        <c:axId val="1721612176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1721622576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721612176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1721612176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1721622576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'7.全區域210型(1群) '!$A$1:$G$1</c:f>
+          <c:strCache>
+            <c:ptCount val="7"/>
+            <c:pt idx="0">
+              <c:v>基隆全區域SAQ-210濃度趨勢圖</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'7.全區域210型(1群) '!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>基隆</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'7.全區域210型(1群) '!$A$3:$A$8762</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8760"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'7.全區域210型(1群) '!$B$3:$B$8762</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8760"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-909F-4D37-AB5C-14410CEAFCE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'7.全區域210型(1群) '!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>K1AL99</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'7.全區域210型(1群) '!$A$3:$A$8762</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8760"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'7.全區域210型(1群) '!$C$3:$C$8762</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8760"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-909F-4D37-AB5C-14410CEAFCE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="533146591"/>
+        <c:axId val="533146175"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="533146591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533146175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="533146175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533146591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -5083,6 +5825,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7448,6 +8270,1038 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -12052,6 +13906,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2261E26-C385-4706-9351-BAADFD4C9AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B999E1-949B-43AB-A172-1E7AC98455C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -12352,9 +14287,9 @@
   <dimension ref="A1:N1506"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A724" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M28" sqref="M28"/>
-      <selection pane="bottomLeft" activeCell="C753" sqref="C753"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -17344,9 +19279,9 @@
   <dimension ref="A1:AB781"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A731" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M28" sqref="M28"/>
-      <selection pane="bottomLeft" activeCell="F750" sqref="F750"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -21120,9 +23055,9 @@
   <dimension ref="A1:D753"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A729" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M28" sqref="M28"/>
-      <selection pane="bottomLeft" activeCell="D753" sqref="D753"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -21152,3723 +23087,843 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3"/>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C4"/>
+      <c r="D4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5"/>
+      <c r="D5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="C6"/>
+      <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7"/>
+      <c r="D7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8"/>
+      <c r="D8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9"/>
+      <c r="D9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10"/>
+      <c r="D10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11"/>
+      <c r="D11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12"/>
+      <c r="D12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13"/>
+      <c r="D13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14"/>
+      <c r="D14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="C15"/>
+      <c r="D15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120"/>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123"/>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125"/>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144"/>
-      <c r="C144" s="2"/>
-      <c r="D144" s="2"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145"/>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146"/>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147"/>
-      <c r="C147" s="2"/>
-      <c r="D147" s="2"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148"/>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150"/>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157"/>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160"/>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161"/>
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163"/>
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164"/>
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165"/>
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166"/>
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167"/>
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168"/>
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169"/>
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170"/>
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171"/>
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180"/>
-      <c r="C180" s="2"/>
-      <c r="D180" s="2"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181"/>
-      <c r="C181" s="2"/>
-      <c r="D181" s="2"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182"/>
-      <c r="C182" s="2"/>
-      <c r="D182" s="2"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184"/>
-      <c r="C184" s="2"/>
-      <c r="D184" s="2"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203"/>
-      <c r="C203" s="2"/>
-      <c r="D203" s="2"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204"/>
-      <c r="C204" s="2"/>
-      <c r="D204" s="2"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206"/>
-      <c r="C206" s="2"/>
-      <c r="D206" s="2"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207"/>
-      <c r="C207" s="2"/>
-      <c r="D207" s="2"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208"/>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209"/>
-      <c r="C209" s="2"/>
-      <c r="D209" s="2"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210"/>
-      <c r="C210" s="2"/>
-      <c r="D210" s="2"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212"/>
-      <c r="C212" s="2"/>
-      <c r="D212" s="2"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213"/>
-      <c r="C213" s="2"/>
-      <c r="D213" s="2"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215"/>
-      <c r="C215" s="2"/>
-      <c r="D215" s="2"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216"/>
-      <c r="C216" s="2"/>
-      <c r="D216" s="2"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217"/>
-      <c r="C217" s="2"/>
-      <c r="D217" s="2"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218"/>
-      <c r="C218" s="2"/>
-      <c r="D218" s="2"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219"/>
-      <c r="C219" s="2"/>
-      <c r="D219" s="2"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220"/>
-      <c r="C220" s="2"/>
-      <c r="D220" s="2"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221"/>
-      <c r="C221" s="2"/>
-      <c r="D221" s="2"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="2"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223"/>
-      <c r="C223" s="2"/>
-      <c r="D223" s="2"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232"/>
-      <c r="C232" s="2"/>
-      <c r="D232" s="2"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235"/>
-      <c r="C235" s="2"/>
-      <c r="D235" s="2"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237"/>
-      <c r="C237" s="2"/>
-      <c r="D237" s="2"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238"/>
-      <c r="C238" s="2"/>
-      <c r="D238" s="2"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239"/>
-      <c r="C239" s="2"/>
-      <c r="D239" s="2"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241"/>
-      <c r="C241" s="2"/>
-      <c r="D241" s="2"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242"/>
-      <c r="C242" s="2"/>
-      <c r="D242" s="2"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243"/>
-      <c r="C243" s="2"/>
-      <c r="D243" s="2"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244"/>
-      <c r="C244" s="2"/>
-      <c r="D244" s="2"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245"/>
-      <c r="C245" s="2"/>
-      <c r="D245" s="2"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246"/>
-      <c r="C246" s="2"/>
-      <c r="D246" s="2"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247"/>
-      <c r="C247" s="2"/>
-      <c r="D247" s="2"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248"/>
-      <c r="C248" s="2"/>
-      <c r="D248" s="2"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250"/>
-      <c r="C250" s="2"/>
-      <c r="D250" s="2"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251"/>
-      <c r="C251" s="2"/>
-      <c r="D251" s="2"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252"/>
-      <c r="C252" s="2"/>
-      <c r="D252" s="2"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253"/>
-      <c r="C253" s="2"/>
-      <c r="D253" s="2"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254"/>
-      <c r="C254" s="2"/>
-      <c r="D254" s="2"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255"/>
-      <c r="C255" s="2"/>
-      <c r="D255" s="2"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256"/>
-      <c r="C256" s="2"/>
-      <c r="D256" s="2"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257"/>
-      <c r="C257" s="2"/>
-      <c r="D257" s="2"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258"/>
-      <c r="C258" s="2"/>
-      <c r="D258" s="2"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259"/>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260"/>
-      <c r="C260" s="2"/>
-      <c r="D260" s="2"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261"/>
-      <c r="C261" s="2"/>
-      <c r="D261" s="2"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262"/>
-      <c r="C262" s="2"/>
-      <c r="D262" s="2"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264"/>
-      <c r="C264" s="2"/>
-      <c r="D264" s="2"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265"/>
-      <c r="C265" s="2"/>
-      <c r="D265" s="2"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269"/>
-      <c r="C269" s="2"/>
-      <c r="D269" s="2"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275"/>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276"/>
-      <c r="C276" s="2"/>
-      <c r="D276" s="2"/>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277"/>
-      <c r="C277" s="2"/>
-      <c r="D277" s="2"/>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278"/>
-      <c r="C278" s="2"/>
-      <c r="D278" s="2"/>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279"/>
-      <c r="C279" s="2"/>
-      <c r="D279" s="2"/>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280"/>
-      <c r="C280" s="2"/>
-      <c r="D280" s="2"/>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281"/>
-      <c r="C281" s="2"/>
-      <c r="D281" s="2"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282"/>
-      <c r="C282" s="2"/>
-      <c r="D282" s="2"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283"/>
-      <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284"/>
-      <c r="C284" s="2"/>
-      <c r="D284" s="2"/>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285"/>
-      <c r="C285" s="2"/>
-      <c r="D285" s="2"/>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286"/>
-      <c r="C286" s="2"/>
-      <c r="D286" s="2"/>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287"/>
-      <c r="C287" s="2"/>
-      <c r="D287" s="2"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288"/>
-      <c r="C288" s="2"/>
-      <c r="D288" s="2"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289"/>
-      <c r="C289" s="2"/>
-      <c r="D289" s="2"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290"/>
-      <c r="C290" s="2"/>
-      <c r="D290" s="2"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291"/>
-      <c r="C291" s="2"/>
-      <c r="D291" s="2"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292"/>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293"/>
-      <c r="C293" s="2"/>
-      <c r="D293" s="2"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294"/>
-      <c r="C294" s="2"/>
-      <c r="D294" s="2"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295"/>
-      <c r="C295" s="2"/>
-      <c r="D295" s="2"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296"/>
-      <c r="C296" s="2"/>
-      <c r="D296" s="2"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297"/>
-      <c r="C297" s="2"/>
-      <c r="D297" s="2"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298"/>
-      <c r="C298" s="2"/>
-      <c r="D298" s="2"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299"/>
-      <c r="C299" s="2"/>
-      <c r="D299" s="2"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300"/>
-      <c r="C300" s="2"/>
-      <c r="D300" s="2"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301"/>
-      <c r="C301" s="2"/>
-      <c r="D301" s="2"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302"/>
-      <c r="C302" s="2"/>
-      <c r="D302" s="2"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303"/>
-      <c r="C303" s="2"/>
-      <c r="D303" s="2"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304"/>
-      <c r="C304" s="2"/>
-      <c r="D304" s="2"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305"/>
-      <c r="C305" s="2"/>
-      <c r="D305" s="2"/>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306"/>
-      <c r="C306" s="2"/>
-      <c r="D306" s="2"/>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307"/>
-      <c r="C307" s="2"/>
-      <c r="D307" s="2"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308"/>
-      <c r="C308" s="2"/>
-      <c r="D308" s="2"/>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309"/>
-      <c r="C309" s="2"/>
-      <c r="D309" s="2"/>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310"/>
-      <c r="C310" s="2"/>
-      <c r="D310" s="2"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311"/>
-      <c r="C311" s="2"/>
-      <c r="D311" s="2"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312"/>
-      <c r="C312" s="2"/>
-      <c r="D312" s="2"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313"/>
-      <c r="C313" s="2"/>
-      <c r="D313" s="2"/>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314"/>
-      <c r="C314" s="2"/>
-      <c r="D314" s="2"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315"/>
-      <c r="C315" s="2"/>
-      <c r="D315" s="2"/>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316"/>
-      <c r="C316" s="2"/>
-      <c r="D316" s="2"/>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317"/>
-      <c r="C317" s="2"/>
-      <c r="D317" s="2"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318"/>
-      <c r="C318" s="2"/>
-      <c r="D318" s="2"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319"/>
-      <c r="C319" s="2"/>
-      <c r="D319" s="2"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320"/>
-      <c r="C320" s="2"/>
-      <c r="D320" s="2"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321"/>
-      <c r="C321" s="2"/>
-      <c r="D321" s="2"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322"/>
-      <c r="C322" s="2"/>
-      <c r="D322" s="2"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323"/>
-      <c r="C323" s="2"/>
-      <c r="D323" s="2"/>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324"/>
-      <c r="C324" s="2"/>
-      <c r="D324" s="2"/>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325"/>
-      <c r="C325" s="2"/>
-      <c r="D325" s="2"/>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326"/>
-      <c r="C326" s="2"/>
-      <c r="D326" s="2"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327"/>
-      <c r="C327" s="2"/>
-      <c r="D327" s="2"/>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328"/>
-      <c r="C328" s="2"/>
-      <c r="D328" s="2"/>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329"/>
-      <c r="C329" s="2"/>
-      <c r="D329" s="2"/>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330"/>
-      <c r="C330" s="2"/>
-      <c r="D330" s="2"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331"/>
-      <c r="C331" s="2"/>
-      <c r="D331" s="2"/>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332"/>
-      <c r="C332" s="2"/>
-      <c r="D332" s="2"/>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333"/>
-      <c r="C333" s="2"/>
-      <c r="D333" s="2"/>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334"/>
-      <c r="C334" s="2"/>
-      <c r="D334" s="2"/>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335"/>
-      <c r="C335" s="2"/>
-      <c r="D335" s="2"/>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336"/>
-      <c r="C336" s="2"/>
-      <c r="D336" s="2"/>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337"/>
-      <c r="C337" s="2"/>
-      <c r="D337" s="2"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338"/>
-      <c r="C338" s="2"/>
-      <c r="D338" s="2"/>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339"/>
-      <c r="C339" s="2"/>
-      <c r="D339" s="2"/>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340"/>
-      <c r="C340" s="2"/>
-      <c r="D340" s="2"/>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341"/>
-      <c r="C341" s="2"/>
-      <c r="D341" s="2"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342"/>
-      <c r="C342" s="2"/>
-      <c r="D342" s="2"/>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343"/>
-      <c r="C343" s="2"/>
-      <c r="D343" s="2"/>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344"/>
-      <c r="C344" s="2"/>
-      <c r="D344" s="2"/>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345"/>
-      <c r="C345" s="2"/>
-      <c r="D345" s="2"/>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346"/>
-      <c r="C346" s="2"/>
-      <c r="D346" s="2"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347"/>
-      <c r="C347" s="2"/>
-      <c r="D347" s="2"/>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348"/>
-      <c r="C348" s="2"/>
-      <c r="D348" s="2"/>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349"/>
-      <c r="C349" s="2"/>
-      <c r="D349" s="2"/>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350"/>
-      <c r="C350" s="2"/>
-      <c r="D350" s="2"/>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351"/>
-      <c r="C351" s="2"/>
-      <c r="D351" s="2"/>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352"/>
-      <c r="C352" s="2"/>
-      <c r="D352" s="2"/>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353"/>
-      <c r="C353" s="2"/>
-      <c r="D353" s="2"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354"/>
-      <c r="C354" s="2"/>
-      <c r="D354" s="2"/>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355"/>
-      <c r="C355" s="2"/>
-      <c r="D355" s="2"/>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356"/>
-      <c r="C356" s="2"/>
-      <c r="D356" s="2"/>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357"/>
-      <c r="C357" s="2"/>
-      <c r="D357" s="2"/>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358"/>
-      <c r="C358" s="2"/>
-      <c r="D358" s="2"/>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359"/>
-      <c r="C359" s="2"/>
-      <c r="D359" s="2"/>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360"/>
-      <c r="C360" s="2"/>
-      <c r="D360" s="2"/>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361"/>
-      <c r="C361" s="2"/>
-      <c r="D361" s="2"/>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362"/>
-      <c r="C362" s="2"/>
-      <c r="D362" s="2"/>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363"/>
-      <c r="C363" s="2"/>
-      <c r="D363" s="2"/>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364"/>
-      <c r="C364" s="2"/>
-      <c r="D364" s="2"/>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365"/>
-      <c r="C365" s="2"/>
-      <c r="D365" s="2"/>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366"/>
-      <c r="C366" s="2"/>
-      <c r="D366" s="2"/>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367"/>
-      <c r="C367" s="2"/>
-      <c r="D367" s="2"/>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368"/>
-      <c r="C368" s="2"/>
-      <c r="D368" s="2"/>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369"/>
-      <c r="C369" s="2"/>
-      <c r="D369" s="2"/>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370"/>
-      <c r="C370" s="2"/>
-      <c r="D370" s="2"/>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371"/>
-      <c r="C371" s="2"/>
-      <c r="D371" s="2"/>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372"/>
-      <c r="C372" s="2"/>
-      <c r="D372" s="2"/>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373"/>
-      <c r="C373" s="2"/>
-      <c r="D373" s="2"/>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374"/>
-      <c r="C374" s="2"/>
-      <c r="D374" s="2"/>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375"/>
-      <c r="C375" s="2"/>
-      <c r="D375" s="2"/>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376"/>
-      <c r="C376" s="2"/>
-      <c r="D376" s="2"/>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377"/>
-      <c r="C377" s="2"/>
-      <c r="D377" s="2"/>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378"/>
-      <c r="C378" s="2"/>
-      <c r="D378" s="2"/>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379"/>
-      <c r="C379" s="2"/>
-      <c r="D379" s="2"/>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380"/>
-      <c r="C380" s="2"/>
-      <c r="D380" s="2"/>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381"/>
-      <c r="C381" s="2"/>
-      <c r="D381" s="2"/>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382"/>
-      <c r="C382" s="2"/>
-      <c r="D382" s="2"/>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383"/>
-      <c r="C383" s="2"/>
-      <c r="D383" s="2"/>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384"/>
-      <c r="C384" s="2"/>
-      <c r="D384" s="2"/>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385"/>
-      <c r="C385" s="2"/>
-      <c r="D385" s="2"/>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386"/>
-      <c r="C386" s="2"/>
-      <c r="D386" s="2"/>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387"/>
-      <c r="C387" s="2"/>
-      <c r="D387" s="2"/>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388"/>
-      <c r="C388" s="2"/>
-      <c r="D388" s="2"/>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389"/>
-      <c r="C389" s="2"/>
-      <c r="D389" s="2"/>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390"/>
-      <c r="C390" s="2"/>
-      <c r="D390" s="2"/>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391"/>
-      <c r="C391" s="2"/>
-      <c r="D391" s="2"/>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392"/>
-      <c r="C392" s="2"/>
-      <c r="D392" s="2"/>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393"/>
-      <c r="C393" s="2"/>
-      <c r="D393" s="2"/>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394"/>
-      <c r="C394" s="2"/>
-      <c r="D394" s="2"/>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395"/>
-      <c r="C395" s="2"/>
-      <c r="D395" s="2"/>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396"/>
-      <c r="C396" s="2"/>
-      <c r="D396" s="2"/>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397"/>
-      <c r="C397" s="2"/>
-      <c r="D397" s="2"/>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398"/>
-      <c r="C398" s="2"/>
-      <c r="D398" s="2"/>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399"/>
-      <c r="C399" s="2"/>
-      <c r="D399" s="2"/>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400"/>
-      <c r="C400" s="2"/>
-      <c r="D400" s="2"/>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401"/>
-      <c r="C401" s="2"/>
-      <c r="D401" s="2"/>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402"/>
-      <c r="C402" s="2"/>
-      <c r="D402" s="2"/>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403"/>
-      <c r="C403" s="2"/>
-      <c r="D403" s="2"/>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404"/>
-      <c r="C404" s="2"/>
-      <c r="D404" s="2"/>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405"/>
-      <c r="C405" s="2"/>
-      <c r="D405" s="2"/>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406"/>
-      <c r="C406" s="2"/>
-      <c r="D406" s="2"/>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407"/>
-      <c r="C407" s="2"/>
-      <c r="D407" s="2"/>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408"/>
-      <c r="C408" s="2"/>
-      <c r="D408" s="2"/>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409"/>
-      <c r="C409" s="2"/>
-      <c r="D409" s="2"/>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410"/>
-      <c r="C410" s="2"/>
-      <c r="D410" s="2"/>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411"/>
-      <c r="C411" s="2"/>
-      <c r="D411" s="2"/>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412"/>
-      <c r="C412" s="2"/>
-      <c r="D412" s="2"/>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413"/>
-      <c r="C413" s="2"/>
-      <c r="D413" s="2"/>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414"/>
-      <c r="C414" s="2"/>
-      <c r="D414" s="2"/>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415"/>
-      <c r="C415" s="2"/>
-      <c r="D415" s="2"/>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416"/>
-      <c r="C416" s="2"/>
-      <c r="D416" s="2"/>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417"/>
-      <c r="C417" s="2"/>
-      <c r="D417" s="2"/>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418"/>
-      <c r="C418" s="2"/>
-      <c r="D418" s="2"/>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419"/>
-      <c r="C419" s="2"/>
-      <c r="D419" s="2"/>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420"/>
-      <c r="C420" s="2"/>
-      <c r="D420" s="2"/>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421"/>
-      <c r="C421" s="2"/>
-      <c r="D421" s="2"/>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422"/>
-      <c r="C422" s="2"/>
-      <c r="D422" s="2"/>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423"/>
-      <c r="C423" s="2"/>
-      <c r="D423" s="2"/>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424"/>
-      <c r="C424" s="2"/>
-      <c r="D424" s="2"/>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425"/>
-      <c r="C425" s="2"/>
-      <c r="D425" s="2"/>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426"/>
-      <c r="C426" s="2"/>
-      <c r="D426" s="2"/>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427"/>
-      <c r="C427" s="2"/>
-      <c r="D427" s="2"/>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428"/>
-      <c r="C428" s="2"/>
-      <c r="D428" s="2"/>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429"/>
-      <c r="C429" s="2"/>
-      <c r="D429" s="2"/>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430"/>
-      <c r="C430" s="2"/>
-      <c r="D430" s="2"/>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431"/>
-      <c r="C431" s="2"/>
-      <c r="D431" s="2"/>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432"/>
-      <c r="C432" s="2"/>
-      <c r="D432" s="2"/>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433"/>
-      <c r="C433" s="2"/>
-      <c r="D433" s="2"/>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434"/>
-      <c r="C434" s="2"/>
-      <c r="D434" s="2"/>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435"/>
-      <c r="C435" s="2"/>
-      <c r="D435" s="2"/>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436"/>
-      <c r="C436" s="2"/>
-      <c r="D436" s="2"/>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437"/>
-      <c r="C437" s="2"/>
-      <c r="D437" s="2"/>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438"/>
-      <c r="C438" s="2"/>
-      <c r="D438" s="2"/>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439"/>
-      <c r="C439" s="2"/>
-      <c r="D439" s="2"/>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440"/>
-      <c r="C440" s="2"/>
-      <c r="D440" s="2"/>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441"/>
-      <c r="C441" s="2"/>
-      <c r="D441" s="2"/>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442"/>
-      <c r="C442" s="2"/>
-      <c r="D442" s="2"/>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443"/>
-      <c r="C443" s="2"/>
-      <c r="D443" s="2"/>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444"/>
-      <c r="C444" s="2"/>
-      <c r="D444" s="2"/>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445"/>
-      <c r="C445" s="2"/>
-      <c r="D445" s="2"/>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446"/>
-      <c r="C446" s="2"/>
-      <c r="D446" s="2"/>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447"/>
-      <c r="C447" s="2"/>
-      <c r="D447" s="2"/>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448"/>
-      <c r="C448" s="2"/>
-      <c r="D448" s="2"/>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449"/>
-      <c r="C449" s="2"/>
-      <c r="D449" s="2"/>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450"/>
-      <c r="C450" s="2"/>
-      <c r="D450" s="2"/>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451"/>
-      <c r="C451" s="2"/>
-      <c r="D451" s="2"/>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452"/>
-      <c r="C452" s="2"/>
-      <c r="D452" s="2"/>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453"/>
-      <c r="C453" s="2"/>
-      <c r="D453" s="2"/>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454"/>
-      <c r="C454" s="2"/>
-      <c r="D454" s="2"/>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A455"/>
-      <c r="C455" s="2"/>
-      <c r="D455" s="2"/>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A456"/>
-      <c r="C456" s="2"/>
-      <c r="D456" s="2"/>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457"/>
-      <c r="C457" s="2"/>
-      <c r="D457" s="2"/>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A458"/>
-      <c r="C458" s="2"/>
-      <c r="D458" s="2"/>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459"/>
-      <c r="C459" s="2"/>
-      <c r="D459" s="2"/>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460"/>
-      <c r="C460" s="2"/>
-      <c r="D460" s="2"/>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461"/>
-      <c r="C461" s="2"/>
-      <c r="D461" s="2"/>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462"/>
-      <c r="C462" s="2"/>
-      <c r="D462" s="2"/>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463"/>
-      <c r="C463" s="2"/>
-      <c r="D463" s="2"/>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464"/>
-      <c r="C464" s="2"/>
-      <c r="D464" s="2"/>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465"/>
-      <c r="C465" s="2"/>
-      <c r="D465" s="2"/>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466"/>
-      <c r="C466" s="2"/>
-      <c r="D466" s="2"/>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467"/>
-      <c r="C467" s="2"/>
-      <c r="D467" s="2"/>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468"/>
-      <c r="C468" s="2"/>
-      <c r="D468" s="2"/>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469"/>
-      <c r="C469" s="2"/>
-      <c r="D469" s="2"/>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470"/>
-      <c r="C470" s="2"/>
-      <c r="D470" s="2"/>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471"/>
-      <c r="C471" s="2"/>
-      <c r="D471" s="2"/>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A472"/>
-      <c r="C472" s="2"/>
-      <c r="D472" s="2"/>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473"/>
-      <c r="C473" s="2"/>
-      <c r="D473" s="2"/>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474"/>
-      <c r="C474" s="2"/>
-      <c r="D474" s="2"/>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A475"/>
-      <c r="C475" s="2"/>
-      <c r="D475" s="2"/>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476"/>
-      <c r="C476" s="2"/>
-      <c r="D476" s="2"/>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477"/>
-      <c r="C477" s="2"/>
-      <c r="D477" s="2"/>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478"/>
-      <c r="C478" s="2"/>
-      <c r="D478" s="2"/>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A479"/>
-      <c r="C479" s="2"/>
-      <c r="D479" s="2"/>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480"/>
-      <c r="C480" s="2"/>
-      <c r="D480" s="2"/>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A481"/>
-      <c r="C481" s="2"/>
-      <c r="D481" s="2"/>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A482"/>
-      <c r="C482" s="2"/>
-      <c r="D482" s="2"/>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483"/>
-      <c r="C483" s="2"/>
-      <c r="D483" s="2"/>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484"/>
-      <c r="C484" s="2"/>
-      <c r="D484" s="2"/>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485"/>
-      <c r="C485" s="2"/>
-      <c r="D485" s="2"/>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A486"/>
-      <c r="C486" s="2"/>
-      <c r="D486" s="2"/>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487"/>
-      <c r="C487" s="2"/>
-      <c r="D487" s="2"/>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488"/>
-      <c r="C488" s="2"/>
-      <c r="D488" s="2"/>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489"/>
-      <c r="C489" s="2"/>
-      <c r="D489" s="2"/>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490"/>
-      <c r="C490" s="2"/>
-      <c r="D490" s="2"/>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491"/>
-      <c r="C491" s="2"/>
-      <c r="D491" s="2"/>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A492"/>
-      <c r="C492" s="2"/>
-      <c r="D492" s="2"/>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493"/>
-      <c r="C493" s="2"/>
-      <c r="D493" s="2"/>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A494"/>
-      <c r="C494" s="2"/>
-      <c r="D494" s="2"/>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A495"/>
-      <c r="C495" s="2"/>
-      <c r="D495" s="2"/>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A496"/>
-      <c r="C496" s="2"/>
-      <c r="D496" s="2"/>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A497"/>
-      <c r="C497" s="2"/>
-      <c r="D497" s="2"/>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A498"/>
-      <c r="C498" s="2"/>
-      <c r="D498" s="2"/>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A499"/>
-      <c r="C499" s="2"/>
-      <c r="D499" s="2"/>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A500"/>
-      <c r="C500" s="2"/>
-      <c r="D500" s="2"/>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A501"/>
-      <c r="C501" s="2"/>
-      <c r="D501" s="2"/>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A502"/>
-      <c r="C502" s="2"/>
-      <c r="D502" s="2"/>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A503"/>
-      <c r="C503" s="2"/>
-      <c r="D503" s="2"/>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A504"/>
-      <c r="C504" s="2"/>
-      <c r="D504" s="2"/>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A505"/>
-      <c r="C505" s="2"/>
-      <c r="D505" s="2"/>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A506"/>
-      <c r="C506" s="2"/>
-      <c r="D506" s="2"/>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A507"/>
-      <c r="C507" s="2"/>
-      <c r="D507" s="2"/>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A508"/>
-      <c r="C508" s="2"/>
-      <c r="D508" s="2"/>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A509"/>
-      <c r="C509" s="2"/>
-      <c r="D509" s="2"/>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A510"/>
-      <c r="C510" s="2"/>
-      <c r="D510" s="2"/>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A511"/>
-      <c r="C511" s="2"/>
-      <c r="D511" s="2"/>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A512"/>
-      <c r="C512" s="2"/>
-      <c r="D512" s="2"/>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A513"/>
-      <c r="C513" s="2"/>
-      <c r="D513" s="2"/>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A514"/>
-      <c r="C514" s="2"/>
-      <c r="D514" s="2"/>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A515"/>
-      <c r="C515" s="2"/>
-      <c r="D515" s="2"/>
-    </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A516"/>
-      <c r="C516" s="2"/>
-      <c r="D516" s="2"/>
-    </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A517"/>
-      <c r="C517" s="2"/>
-      <c r="D517" s="2"/>
-    </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A518"/>
-      <c r="C518" s="2"/>
-      <c r="D518" s="2"/>
-    </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A519"/>
-      <c r="C519" s="2"/>
-      <c r="D519" s="2"/>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A520"/>
-      <c r="C520" s="2"/>
-      <c r="D520" s="2"/>
-    </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A521"/>
-      <c r="C521" s="2"/>
-      <c r="D521" s="2"/>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A522"/>
-      <c r="C522" s="2"/>
-      <c r="D522" s="2"/>
-    </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A523"/>
-      <c r="C523" s="2"/>
-      <c r="D523" s="2"/>
-    </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A524"/>
-      <c r="C524" s="2"/>
-      <c r="D524" s="2"/>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A525"/>
-      <c r="C525" s="2"/>
-      <c r="D525" s="2"/>
-    </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A526"/>
-      <c r="C526" s="2"/>
-      <c r="D526" s="2"/>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A527"/>
-      <c r="C527" s="2"/>
-      <c r="D527" s="2"/>
-    </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A528"/>
-      <c r="C528" s="2"/>
-      <c r="D528" s="2"/>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A529"/>
-      <c r="C529" s="2"/>
-      <c r="D529" s="2"/>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A530"/>
-      <c r="C530" s="2"/>
-      <c r="D530" s="2"/>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A531"/>
-      <c r="C531" s="2"/>
-      <c r="D531" s="2"/>
-    </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A532"/>
-      <c r="C532" s="2"/>
-      <c r="D532" s="2"/>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A533"/>
-      <c r="C533" s="2"/>
-      <c r="D533" s="2"/>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A534"/>
-      <c r="C534" s="2"/>
-      <c r="D534" s="2"/>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A535"/>
-      <c r="C535" s="2"/>
-      <c r="D535" s="2"/>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A536"/>
-      <c r="C536" s="2"/>
-      <c r="D536" s="2"/>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A537"/>
-      <c r="C537" s="2"/>
-      <c r="D537" s="2"/>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A538"/>
-      <c r="C538" s="2"/>
-      <c r="D538" s="2"/>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A539"/>
-      <c r="C539" s="2"/>
-      <c r="D539" s="2"/>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A540"/>
-      <c r="C540" s="2"/>
-      <c r="D540" s="2"/>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A541"/>
-      <c r="C541" s="2"/>
-      <c r="D541" s="2"/>
-    </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A542"/>
-      <c r="C542" s="2"/>
-      <c r="D542" s="2"/>
-    </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A543"/>
-      <c r="C543" s="2"/>
-      <c r="D543" s="2"/>
-    </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A544"/>
-      <c r="C544" s="2"/>
-      <c r="D544" s="2"/>
-    </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A545"/>
-      <c r="C545" s="2"/>
-      <c r="D545" s="2"/>
-    </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A546"/>
-      <c r="C546" s="2"/>
-      <c r="D546" s="2"/>
-    </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A547"/>
-      <c r="C547" s="2"/>
-      <c r="D547" s="2"/>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A548"/>
-      <c r="C548" s="2"/>
-      <c r="D548" s="2"/>
-    </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A549"/>
-      <c r="C549" s="2"/>
-      <c r="D549" s="2"/>
-    </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A550"/>
-      <c r="C550" s="2"/>
-      <c r="D550" s="2"/>
-    </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A551"/>
-      <c r="C551" s="2"/>
-      <c r="D551" s="2"/>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A552"/>
-      <c r="C552" s="2"/>
-      <c r="D552" s="2"/>
-    </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A553"/>
-      <c r="C553" s="2"/>
-      <c r="D553" s="2"/>
-    </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A554"/>
-      <c r="C554" s="2"/>
-      <c r="D554" s="2"/>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A555"/>
-      <c r="C555" s="2"/>
-      <c r="D555" s="2"/>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A556"/>
-      <c r="C556" s="2"/>
-      <c r="D556" s="2"/>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A557"/>
-      <c r="C557" s="2"/>
-      <c r="D557" s="2"/>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A558"/>
-      <c r="C558" s="2"/>
-      <c r="D558" s="2"/>
-    </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A559"/>
-      <c r="C559" s="2"/>
-      <c r="D559" s="2"/>
-    </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A560"/>
-      <c r="C560" s="2"/>
-      <c r="D560" s="2"/>
-    </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A561"/>
-      <c r="C561" s="2"/>
-      <c r="D561" s="2"/>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A562"/>
-      <c r="C562" s="2"/>
-      <c r="D562" s="2"/>
-    </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A563"/>
-      <c r="C563" s="2"/>
-      <c r="D563" s="2"/>
-    </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A564"/>
-      <c r="C564" s="2"/>
-      <c r="D564" s="2"/>
-    </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A565"/>
-      <c r="C565" s="2"/>
-      <c r="D565" s="2"/>
-    </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A566"/>
-      <c r="C566" s="2"/>
-      <c r="D566" s="2"/>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A567"/>
-      <c r="C567" s="2"/>
-      <c r="D567" s="2"/>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A568"/>
-      <c r="C568" s="2"/>
-      <c r="D568" s="2"/>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A569"/>
-      <c r="C569" s="2"/>
-      <c r="D569" s="2"/>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A570"/>
-      <c r="C570" s="2"/>
-      <c r="D570" s="2"/>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A571"/>
-      <c r="C571" s="2"/>
-      <c r="D571" s="2"/>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A572"/>
-      <c r="C572" s="2"/>
-      <c r="D572" s="2"/>
-    </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A573"/>
-      <c r="C573" s="2"/>
-      <c r="D573" s="2"/>
-    </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A574"/>
-      <c r="C574" s="2"/>
-      <c r="D574" s="2"/>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A575"/>
-      <c r="C575" s="2"/>
-      <c r="D575" s="2"/>
-    </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A576"/>
-      <c r="C576" s="2"/>
-      <c r="D576" s="2"/>
-    </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A577"/>
-      <c r="C577" s="2"/>
-      <c r="D577" s="2"/>
-    </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A578"/>
-      <c r="C578" s="2"/>
-      <c r="D578" s="2"/>
-    </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A579"/>
-      <c r="C579" s="2"/>
-      <c r="D579" s="2"/>
-    </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A580"/>
-      <c r="C580" s="2"/>
-      <c r="D580" s="2"/>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A581"/>
-      <c r="C581" s="2"/>
-      <c r="D581" s="2"/>
-    </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A582"/>
-      <c r="C582" s="2"/>
-      <c r="D582" s="2"/>
-    </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A583"/>
-      <c r="C583" s="2"/>
-      <c r="D583" s="2"/>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A584"/>
-      <c r="C584" s="2"/>
-      <c r="D584" s="2"/>
-    </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A585"/>
-      <c r="C585" s="2"/>
-      <c r="D585" s="2"/>
-    </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A586"/>
-      <c r="C586" s="2"/>
-      <c r="D586" s="2"/>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A587"/>
-      <c r="C587" s="2"/>
-      <c r="D587" s="2"/>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A588"/>
-      <c r="C588" s="2"/>
-      <c r="D588" s="2"/>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A589"/>
-      <c r="C589" s="2"/>
-      <c r="D589" s="2"/>
-    </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A590"/>
-      <c r="C590" s="2"/>
-      <c r="D590" s="2"/>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A591"/>
-      <c r="C591" s="2"/>
-      <c r="D591" s="2"/>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A592"/>
-      <c r="C592" s="2"/>
-      <c r="D592" s="2"/>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A593"/>
-      <c r="C593" s="2"/>
-      <c r="D593" s="2"/>
-    </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A594"/>
-      <c r="C594" s="2"/>
-      <c r="D594" s="2"/>
-    </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A595"/>
-      <c r="C595" s="2"/>
-      <c r="D595" s="2"/>
-    </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A596"/>
-      <c r="C596" s="2"/>
-      <c r="D596" s="2"/>
-    </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A597"/>
-      <c r="C597" s="2"/>
-      <c r="D597" s="2"/>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A598"/>
-      <c r="C598" s="2"/>
-      <c r="D598" s="2"/>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A599"/>
-      <c r="C599" s="2"/>
-      <c r="D599" s="2"/>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A600"/>
-      <c r="C600" s="2"/>
-      <c r="D600" s="2"/>
-    </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A601"/>
-      <c r="C601" s="2"/>
-      <c r="D601" s="2"/>
-    </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A602"/>
-      <c r="C602" s="2"/>
-      <c r="D602" s="2"/>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A603"/>
-      <c r="C603" s="2"/>
-      <c r="D603" s="2"/>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A604"/>
-      <c r="C604" s="2"/>
-      <c r="D604" s="2"/>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A605"/>
-      <c r="C605" s="2"/>
-      <c r="D605" s="2"/>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A606"/>
-      <c r="C606" s="2"/>
-      <c r="D606" s="2"/>
-    </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A607"/>
-      <c r="C607" s="2"/>
-      <c r="D607" s="2"/>
-    </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A608"/>
-      <c r="C608" s="2"/>
-      <c r="D608" s="2"/>
-    </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A609"/>
-      <c r="C609" s="2"/>
-      <c r="D609" s="2"/>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A610"/>
-      <c r="C610" s="2"/>
-      <c r="D610" s="2"/>
-    </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A611"/>
-      <c r="C611" s="2"/>
-      <c r="D611" s="2"/>
-    </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A612"/>
-      <c r="C612" s="2"/>
-      <c r="D612" s="2"/>
-    </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A613"/>
-      <c r="C613" s="2"/>
-      <c r="D613" s="2"/>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A614"/>
-      <c r="C614" s="2"/>
-      <c r="D614" s="2"/>
-    </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A615"/>
-      <c r="C615" s="2"/>
-      <c r="D615" s="2"/>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A616"/>
-      <c r="C616" s="2"/>
-      <c r="D616" s="2"/>
-    </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A617"/>
-      <c r="C617" s="2"/>
-      <c r="D617" s="2"/>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A618"/>
-      <c r="C618" s="2"/>
-      <c r="D618" s="2"/>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A619"/>
-      <c r="C619" s="2"/>
-      <c r="D619" s="2"/>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A620"/>
-      <c r="C620" s="2"/>
-      <c r="D620" s="2"/>
-    </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A621"/>
-      <c r="C621" s="2"/>
-      <c r="D621" s="2"/>
-    </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A622"/>
-      <c r="C622" s="2"/>
-      <c r="D622" s="2"/>
-    </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A623"/>
-      <c r="C623" s="2"/>
-      <c r="D623" s="2"/>
-    </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A624"/>
-      <c r="C624" s="2"/>
-      <c r="D624" s="2"/>
-    </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A625"/>
-      <c r="C625" s="2"/>
-      <c r="D625" s="2"/>
-    </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A626"/>
-      <c r="C626" s="2"/>
-      <c r="D626" s="2"/>
-    </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A627"/>
-      <c r="C627" s="2"/>
-      <c r="D627" s="2"/>
-    </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A628"/>
-      <c r="C628" s="2"/>
-      <c r="D628" s="2"/>
-    </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A629"/>
-      <c r="C629" s="2"/>
-      <c r="D629" s="2"/>
-    </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A630"/>
-      <c r="C630" s="2"/>
-      <c r="D630" s="2"/>
-    </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A631"/>
-      <c r="C631" s="2"/>
-      <c r="D631" s="2"/>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A632"/>
-      <c r="C632" s="2"/>
-      <c r="D632" s="2"/>
-    </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A633"/>
-      <c r="C633" s="2"/>
-      <c r="D633" s="2"/>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A634"/>
-      <c r="C634" s="2"/>
-      <c r="D634" s="2"/>
-    </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A635"/>
-      <c r="C635" s="2"/>
-      <c r="D635" s="2"/>
-    </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A636"/>
-      <c r="C636" s="2"/>
-      <c r="D636" s="2"/>
-    </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A637"/>
-      <c r="C637" s="2"/>
-      <c r="D637" s="2"/>
-    </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A638"/>
-      <c r="C638" s="2"/>
-      <c r="D638" s="2"/>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A639"/>
-      <c r="C639" s="2"/>
-      <c r="D639" s="2"/>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A640"/>
-      <c r="C640" s="2"/>
-      <c r="D640" s="2"/>
-    </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A641"/>
-      <c r="C641" s="2"/>
-      <c r="D641" s="2"/>
-    </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A642"/>
-      <c r="C642" s="2"/>
-      <c r="D642" s="2"/>
-    </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A643"/>
-      <c r="C643" s="2"/>
-      <c r="D643" s="2"/>
-    </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A644"/>
-      <c r="C644" s="2"/>
-      <c r="D644" s="2"/>
-    </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A645"/>
-      <c r="C645" s="2"/>
-      <c r="D645" s="2"/>
-    </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A646"/>
-      <c r="C646" s="2"/>
-      <c r="D646" s="2"/>
-    </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A647"/>
-      <c r="C647" s="2"/>
-      <c r="D647" s="2"/>
-    </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A648"/>
-      <c r="C648" s="2"/>
-      <c r="D648" s="2"/>
-    </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A649"/>
-      <c r="C649" s="2"/>
-      <c r="D649" s="2"/>
-    </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A650"/>
-      <c r="C650" s="2"/>
-      <c r="D650" s="2"/>
-    </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A651"/>
-      <c r="C651" s="2"/>
-      <c r="D651" s="2"/>
-    </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A652"/>
-      <c r="C652" s="2"/>
-      <c r="D652" s="2"/>
-    </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A653"/>
-      <c r="C653" s="2"/>
-      <c r="D653" s="2"/>
-    </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A654"/>
-      <c r="C654" s="2"/>
-      <c r="D654" s="2"/>
-    </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A655"/>
-      <c r="C655" s="2"/>
-      <c r="D655" s="2"/>
-    </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A656"/>
-      <c r="C656" s="2"/>
-      <c r="D656" s="2"/>
-    </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A657"/>
-      <c r="C657" s="2"/>
-      <c r="D657" s="2"/>
-    </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A658"/>
-      <c r="C658" s="2"/>
-      <c r="D658" s="2"/>
-    </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A659"/>
-      <c r="C659" s="2"/>
-      <c r="D659" s="2"/>
-    </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A660"/>
-      <c r="C660" s="2"/>
-      <c r="D660" s="2"/>
-    </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A661"/>
-      <c r="C661" s="2"/>
-      <c r="D661" s="2"/>
-    </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A662"/>
-      <c r="C662" s="2"/>
-      <c r="D662" s="2"/>
-    </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A663"/>
-      <c r="C663" s="2"/>
-      <c r="D663" s="2"/>
-    </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A664"/>
-      <c r="C664" s="2"/>
-      <c r="D664" s="2"/>
-    </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A665"/>
-      <c r="C665" s="2"/>
-      <c r="D665" s="2"/>
-    </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A666"/>
-      <c r="C666" s="2"/>
-      <c r="D666" s="2"/>
-    </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A667"/>
-      <c r="C667" s="2"/>
-      <c r="D667" s="2"/>
-    </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A668"/>
-      <c r="C668" s="2"/>
-      <c r="D668" s="2"/>
-    </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A669"/>
-      <c r="C669" s="2"/>
-      <c r="D669" s="2"/>
-    </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A670"/>
-      <c r="C670" s="2"/>
-      <c r="D670" s="2"/>
-    </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A671"/>
-      <c r="C671" s="2"/>
-      <c r="D671" s="2"/>
-    </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A672"/>
-      <c r="C672" s="2"/>
-      <c r="D672" s="2"/>
-    </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A673"/>
-      <c r="C673" s="2"/>
-      <c r="D673" s="2"/>
-    </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A674"/>
-      <c r="C674" s="2"/>
-      <c r="D674" s="2"/>
-    </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A675"/>
-      <c r="C675" s="2"/>
-      <c r="D675" s="2"/>
-    </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A676"/>
-      <c r="C676" s="2"/>
-      <c r="D676" s="2"/>
-    </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A677"/>
-      <c r="C677" s="2"/>
-      <c r="D677" s="2"/>
-    </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A678"/>
-      <c r="C678" s="2"/>
-      <c r="D678" s="2"/>
-    </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A679"/>
-      <c r="C679" s="2"/>
-      <c r="D679" s="2"/>
-    </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A680"/>
-      <c r="C680" s="2"/>
-      <c r="D680" s="2"/>
-    </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A681"/>
-      <c r="C681" s="2"/>
-      <c r="D681" s="2"/>
-    </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A682"/>
-      <c r="C682" s="2"/>
-      <c r="D682" s="2"/>
-    </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A683"/>
-      <c r="C683" s="2"/>
-      <c r="D683" s="2"/>
-    </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A684"/>
-      <c r="C684" s="2"/>
-      <c r="D684" s="2"/>
-    </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A685"/>
-      <c r="C685" s="2"/>
-      <c r="D685" s="2"/>
-    </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A686"/>
-      <c r="C686" s="2"/>
-      <c r="D686" s="2"/>
-    </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A687"/>
-      <c r="C687" s="2"/>
-      <c r="D687" s="2"/>
-    </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A688"/>
-      <c r="C688" s="2"/>
-      <c r="D688" s="2"/>
-    </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A689"/>
-      <c r="C689" s="2"/>
-      <c r="D689" s="2"/>
-    </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A690"/>
-      <c r="C690" s="2"/>
-      <c r="D690" s="2"/>
-    </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A691"/>
-      <c r="C691" s="2"/>
-      <c r="D691" s="2"/>
-    </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A692"/>
-      <c r="C692" s="2"/>
-      <c r="D692" s="2"/>
-    </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A693"/>
-      <c r="C693" s="2"/>
-      <c r="D693" s="2"/>
-    </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A694"/>
-      <c r="C694" s="2"/>
-      <c r="D694" s="2"/>
-    </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A695"/>
-      <c r="C695" s="2"/>
-      <c r="D695" s="2"/>
-    </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A696"/>
-      <c r="C696" s="2"/>
-      <c r="D696" s="2"/>
-    </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A697"/>
-      <c r="C697" s="2"/>
-      <c r="D697" s="2"/>
-    </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A698"/>
-      <c r="C698" s="2"/>
-      <c r="D698" s="2"/>
-    </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A699"/>
-      <c r="C699" s="2"/>
-      <c r="D699" s="2"/>
-    </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A700"/>
-      <c r="C700" s="2"/>
-      <c r="D700" s="2"/>
-    </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A701"/>
-      <c r="C701" s="2"/>
-      <c r="D701" s="2"/>
-    </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A702"/>
-      <c r="C702" s="2"/>
-      <c r="D702" s="2"/>
-    </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A703"/>
-      <c r="C703" s="2"/>
-      <c r="D703" s="2"/>
-    </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A704"/>
-      <c r="C704" s="2"/>
-      <c r="D704" s="2"/>
-    </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A705"/>
-      <c r="C705" s="2"/>
-      <c r="D705" s="2"/>
-    </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A706"/>
-      <c r="C706" s="2"/>
-      <c r="D706" s="2"/>
-    </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A707"/>
-      <c r="C707" s="2"/>
-      <c r="D707" s="2"/>
-    </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A708"/>
-      <c r="C708" s="2"/>
-      <c r="D708" s="2"/>
-    </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A709"/>
-      <c r="C709" s="2"/>
-      <c r="D709" s="2"/>
-    </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A710"/>
-      <c r="C710" s="2"/>
-      <c r="D710" s="2"/>
-    </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A711"/>
-      <c r="C711" s="2"/>
-      <c r="D711" s="2"/>
-    </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A712"/>
-      <c r="C712" s="2"/>
-      <c r="D712" s="2"/>
-    </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A713"/>
-      <c r="C713" s="2"/>
-      <c r="D713" s="2"/>
-    </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A714"/>
-      <c r="C714" s="2"/>
-      <c r="D714" s="2"/>
-    </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A715"/>
-      <c r="C715" s="2"/>
-      <c r="D715" s="2"/>
-    </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A716"/>
-      <c r="C716" s="2"/>
-      <c r="D716" s="2"/>
-    </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A717"/>
-      <c r="C717" s="2"/>
-      <c r="D717" s="2"/>
-    </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A718"/>
-      <c r="C718" s="2"/>
-      <c r="D718" s="2"/>
-    </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A719"/>
-      <c r="C719" s="2"/>
-      <c r="D719" s="2"/>
-    </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A720"/>
-      <c r="C720" s="2"/>
-      <c r="D720" s="2"/>
-    </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A721"/>
-      <c r="C721" s="2"/>
-      <c r="D721" s="2"/>
-    </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A722"/>
-      <c r="C722" s="2"/>
-      <c r="D722" s="2"/>
-    </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A723"/>
-      <c r="C723" s="2"/>
-      <c r="D723" s="2"/>
-    </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A724"/>
-      <c r="C724" s="2"/>
-      <c r="D724" s="2"/>
-    </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A725"/>
-      <c r="C725" s="2"/>
-      <c r="D725" s="2"/>
-    </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A726"/>
-      <c r="C726" s="2"/>
-      <c r="D726" s="2"/>
-    </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A727"/>
-      <c r="C727" s="2"/>
-      <c r="D727" s="2"/>
-    </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A728"/>
-      <c r="C728" s="2"/>
-      <c r="D728" s="2"/>
-    </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A729"/>
-      <c r="C729" s="2"/>
-      <c r="D729" s="2"/>
-    </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A730"/>
-      <c r="C730" s="2"/>
-      <c r="D730" s="2"/>
-    </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A731"/>
-      <c r="C731" s="2"/>
-      <c r="D731" s="2"/>
-    </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A732"/>
-      <c r="C732" s="2"/>
-      <c r="D732" s="2"/>
-    </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A733"/>
-      <c r="C733" s="2"/>
-      <c r="D733" s="2"/>
-    </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A734"/>
-      <c r="C734" s="2"/>
-      <c r="D734" s="2"/>
-    </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A735"/>
-      <c r="C735" s="2"/>
-      <c r="D735" s="2"/>
-    </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A736"/>
-      <c r="C736" s="2"/>
-      <c r="D736" s="2"/>
-    </row>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="315" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="318" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="322" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="324" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="325" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="326" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="327" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="328" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="329" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="330" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="331" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="333" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="334" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="335" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="336" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="337" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="442" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="443" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="444" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="445" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="446" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="447" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="448" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="449" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="450" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="451" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="452" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="453" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="454" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="455" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="456" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="457" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="458" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="459" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="460" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="461" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="462" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="463" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="464" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="465" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="466" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="467" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="468" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="469" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="470" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="471" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="472" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="473" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="474" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="475" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="476" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="477" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="478" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="479" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="480" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="481" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="482" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="483" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="484" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="485" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="486" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="487" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="488" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="489" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="490" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="491" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="492" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="493" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="494" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="495" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="496" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="497" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="498" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="499" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="500" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="501" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="502" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="503" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="504" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="505" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="506" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="507" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="508" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="509" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="510" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="511" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="512" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="513" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="514" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="515" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="516" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="517" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="518" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="519" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="520" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="521" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="522" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="523" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="524" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="525" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="526" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="527" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="528" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="529" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="530" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="531" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="532" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="533" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="534" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="535" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="536" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="537" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="538" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="539" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="540" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="541" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="542" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="543" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="544" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="545" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="546" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="547" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="548" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="549" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="550" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="551" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="552" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="553" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="554" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="555" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="556" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="557" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="558" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="559" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="560" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="561" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="562" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="563" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="564" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="565" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="566" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="567" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="568" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="569" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="570" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="571" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="572" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="573" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="574" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="575" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="576" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="577" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="578" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="579" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="580" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="581" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="582" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="583" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="584" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="585" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="586" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="587" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="588" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="589" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="590" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="591" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="592" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="593" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="594" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="595" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="596" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="597" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="598" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="599" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="600" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="601" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="602" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="603" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="604" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="605" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="606" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="607" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="608" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="609" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="610" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="611" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="612" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="613" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="614" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="615" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="616" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="617" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="618" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="619" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="620" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="621" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="622" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="623" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="624" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="625" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="626" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="627" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="628" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="629" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="630" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="631" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="632" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="633" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="634" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="635" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="636" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="637" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="638" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="639" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="640" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="641" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="642" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="643" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="644" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="645" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="646" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="647" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="648" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="649" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="650" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="651" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="652" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="653" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="654" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="655" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="656" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="657" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="658" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="659" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="660" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="661" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="662" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="663" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="664" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="665" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="666" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="667" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="668" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="669" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="670" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="671" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="672" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="673" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="674" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="675" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="676" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="677" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="678" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="679" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="680" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="681" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="682" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="683" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="684" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="685" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="686" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="687" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="688" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="689" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="690" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="691" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="692" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="693" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="694" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="695" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="696" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="697" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="698" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="699" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="700" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="701" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="702" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="703" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="704" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="705" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="706" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="707" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="708" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="709" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="710" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="711" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="712" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="713" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="714" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="715" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="716" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="717" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="718" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="719" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="720" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="721" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="722" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="723" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="724" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="725" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="726" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="727" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="728" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="729" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="730" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="731" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="732" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="733" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="734" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="735" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="736" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737"/>
-      <c r="C737" s="2"/>
-      <c r="D737" s="2"/>
+      <c r="C737"/>
+      <c r="D737"/>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738"/>
-      <c r="C738" s="2"/>
-      <c r="D738" s="2"/>
+      <c r="C738"/>
+      <c r="D738"/>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739"/>
-      <c r="C739" s="2"/>
-      <c r="D739" s="2"/>
+      <c r="C739"/>
+      <c r="D739"/>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740"/>
-      <c r="C740" s="2"/>
-      <c r="D740" s="2"/>
+      <c r="C740"/>
+      <c r="D740"/>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741"/>
-      <c r="C741" s="2"/>
-      <c r="D741" s="2"/>
+      <c r="C741"/>
+      <c r="D741"/>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742"/>
-      <c r="C742" s="2"/>
-      <c r="D742" s="2"/>
+      <c r="C742"/>
+      <c r="D742"/>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743"/>
-      <c r="C743" s="2"/>
-      <c r="D743" s="2"/>
+      <c r="C743"/>
+      <c r="D743"/>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744"/>
-      <c r="C744" s="2"/>
-      <c r="D744" s="2"/>
+      <c r="C744"/>
+      <c r="D744"/>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745"/>
-      <c r="C745" s="2"/>
-      <c r="D745" s="2"/>
+      <c r="C745"/>
+      <c r="D745"/>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746"/>
-      <c r="C746" s="2"/>
-      <c r="D746" s="2"/>
+      <c r="C746"/>
+      <c r="D746"/>
     </row>
     <row r="747" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A747" s="9" t="s">
@@ -24996,8 +24051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAA8C4A-520D-4007-9894-9E7359D16ADF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P5" activeCellId="6" sqref="F13 E1:E1048576 F1:F1048576 G1:G1048576 N1:N1048576 O1:O1048576 P1:P1048576"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -25018,53 +24073,53 @@
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="38"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="39"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
       <c r="J2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="42"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="43"/>
     </row>
     <row r="3" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -25087,47 +24142,47 @@
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="33"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
     </row>
     <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="47"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="53" t="s">
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="54"/>
-      <c r="P4" s="55"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="49"/>
       <c r="Q4" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="25" t="s">
         <v>4</v>
       </c>
@@ -25146,8 +24201,8 @@
       <c r="G5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="J5" s="50"/>
+      <c r="H5" s="46"/>
+      <c r="J5" s="54"/>
       <c r="K5" s="25" t="s">
         <v>4</v>
       </c>
@@ -25168,799 +24223,7 @@
       </c>
       <c r="Q5" s="29"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="26">
-        <v>1</v>
-      </c>
-      <c r="C6" s="26">
-        <v>1</v>
-      </c>
-      <c r="D6" s="26">
-        <v>1</v>
-      </c>
-      <c r="E6" s="20">
-        <v>1</v>
-      </c>
-      <c r="F6" s="20">
-        <v>1</v>
-      </c>
-      <c r="G6" s="20">
-        <v>1</v>
-      </c>
-      <c r="H6" s="26">
-        <v>1</v>
-      </c>
-      <c r="K6" s="26">
-        <v>1</v>
-      </c>
-      <c r="L6" s="26">
-        <v>1</v>
-      </c>
-      <c r="M6" s="26">
-        <v>1</v>
-      </c>
-      <c r="N6" s="20">
-        <v>1</v>
-      </c>
-      <c r="O6" s="20">
-        <v>1</v>
-      </c>
-      <c r="P6" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="26">
-        <v>2</v>
-      </c>
-      <c r="C7" s="26">
-        <v>2</v>
-      </c>
-      <c r="D7" s="26">
-        <v>2</v>
-      </c>
-      <c r="E7" s="20">
-        <v>2</v>
-      </c>
-      <c r="F7" s="20">
-        <v>2</v>
-      </c>
-      <c r="G7" s="20">
-        <v>2</v>
-      </c>
-      <c r="H7" s="26">
-        <v>2</v>
-      </c>
-      <c r="K7" s="26">
-        <v>2</v>
-      </c>
-      <c r="L7" s="26">
-        <v>2</v>
-      </c>
-      <c r="M7" s="26">
-        <v>2</v>
-      </c>
-      <c r="N7" s="20">
-        <v>2</v>
-      </c>
-      <c r="O7" s="20">
-        <v>2</v>
-      </c>
-      <c r="P7" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="26">
-        <v>3</v>
-      </c>
-      <c r="C8" s="26">
-        <v>3</v>
-      </c>
-      <c r="D8" s="26">
-        <v>3</v>
-      </c>
-      <c r="E8" s="20">
-        <v>3</v>
-      </c>
-      <c r="F8" s="20">
-        <v>3</v>
-      </c>
-      <c r="G8" s="20">
-        <v>3</v>
-      </c>
-      <c r="H8" s="26">
-        <v>3</v>
-      </c>
-      <c r="K8" s="26">
-        <v>3</v>
-      </c>
-      <c r="L8" s="26">
-        <v>3</v>
-      </c>
-      <c r="M8" s="26">
-        <v>3</v>
-      </c>
-      <c r="N8" s="20">
-        <v>3</v>
-      </c>
-      <c r="O8" s="20">
-        <v>3</v>
-      </c>
-      <c r="P8" s="20">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="26">
-        <v>4</v>
-      </c>
-      <c r="C9" s="26">
-        <v>4</v>
-      </c>
-      <c r="D9" s="26">
-        <v>4</v>
-      </c>
-      <c r="E9" s="20">
-        <v>4</v>
-      </c>
-      <c r="F9" s="20">
-        <v>4</v>
-      </c>
-      <c r="G9" s="20">
-        <v>4</v>
-      </c>
-      <c r="H9" s="26">
-        <v>4</v>
-      </c>
-      <c r="K9" s="26">
-        <v>4</v>
-      </c>
-      <c r="L9" s="26">
-        <v>4</v>
-      </c>
-      <c r="M9" s="26">
-        <v>4</v>
-      </c>
-      <c r="N9" s="20">
-        <v>4</v>
-      </c>
-      <c r="O9" s="20">
-        <v>4</v>
-      </c>
-      <c r="P9" s="20">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="26">
-        <v>5</v>
-      </c>
-      <c r="C10" s="26">
-        <v>5</v>
-      </c>
-      <c r="D10" s="26">
-        <v>5</v>
-      </c>
-      <c r="E10" s="20">
-        <v>5</v>
-      </c>
-      <c r="F10" s="20">
-        <v>5</v>
-      </c>
-      <c r="G10" s="20">
-        <v>5</v>
-      </c>
-      <c r="H10" s="26">
-        <v>5</v>
-      </c>
-      <c r="K10" s="26">
-        <v>5</v>
-      </c>
-      <c r="L10" s="26">
-        <v>5</v>
-      </c>
-      <c r="M10" s="26">
-        <v>5</v>
-      </c>
-      <c r="N10" s="20">
-        <v>5</v>
-      </c>
-      <c r="O10" s="20">
-        <v>5</v>
-      </c>
-      <c r="P10" s="20">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="26">
-        <v>6</v>
-      </c>
-      <c r="C11" s="26">
-        <v>6</v>
-      </c>
-      <c r="D11" s="26">
-        <v>6</v>
-      </c>
-      <c r="E11" s="20">
-        <v>6</v>
-      </c>
-      <c r="F11" s="20">
-        <v>6</v>
-      </c>
-      <c r="G11" s="20">
-        <v>6</v>
-      </c>
-      <c r="H11" s="26">
-        <v>6</v>
-      </c>
-      <c r="K11" s="26">
-        <v>6</v>
-      </c>
-      <c r="L11" s="26">
-        <v>6</v>
-      </c>
-      <c r="M11" s="26">
-        <v>6</v>
-      </c>
-      <c r="N11" s="20">
-        <v>6</v>
-      </c>
-      <c r="O11" s="20">
-        <v>6</v>
-      </c>
-      <c r="P11" s="20">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="26">
-        <v>7</v>
-      </c>
-      <c r="C12" s="26">
-        <v>7</v>
-      </c>
-      <c r="D12" s="26">
-        <v>7</v>
-      </c>
-      <c r="E12" s="20">
-        <v>7</v>
-      </c>
-      <c r="F12" s="20">
-        <v>7</v>
-      </c>
-      <c r="G12" s="20">
-        <v>7</v>
-      </c>
-      <c r="H12" s="26">
-        <v>7</v>
-      </c>
-      <c r="K12" s="26">
-        <v>7</v>
-      </c>
-      <c r="L12" s="26">
-        <v>7</v>
-      </c>
-      <c r="M12" s="26">
-        <v>7</v>
-      </c>
-      <c r="N12" s="20">
-        <v>7</v>
-      </c>
-      <c r="O12" s="20">
-        <v>7</v>
-      </c>
-      <c r="P12" s="20">
-        <v>7</v>
-      </c>
-      <c r="Q12" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="26">
-        <v>8</v>
-      </c>
-      <c r="C13" s="26">
-        <v>8</v>
-      </c>
-      <c r="D13" s="26">
-        <v>8</v>
-      </c>
-      <c r="E13" s="20">
-        <v>8</v>
-      </c>
-      <c r="F13" s="20">
-        <v>8</v>
-      </c>
-      <c r="G13" s="20">
-        <v>8</v>
-      </c>
-      <c r="H13" s="26">
-        <v>8</v>
-      </c>
-      <c r="K13" s="26">
-        <v>8</v>
-      </c>
-      <c r="L13" s="26">
-        <v>8</v>
-      </c>
-      <c r="M13" s="26">
-        <v>8</v>
-      </c>
-      <c r="N13" s="20">
-        <v>8</v>
-      </c>
-      <c r="O13" s="20">
-        <v>8</v>
-      </c>
-      <c r="P13" s="20">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="26">
-        <v>9</v>
-      </c>
-      <c r="C14" s="26">
-        <v>9</v>
-      </c>
-      <c r="D14" s="26">
-        <v>9</v>
-      </c>
-      <c r="E14" s="20">
-        <v>9</v>
-      </c>
-      <c r="F14" s="20">
-        <v>9</v>
-      </c>
-      <c r="G14" s="20">
-        <v>9</v>
-      </c>
-      <c r="H14" s="26">
-        <v>9</v>
-      </c>
-      <c r="K14" s="26">
-        <v>9</v>
-      </c>
-      <c r="L14" s="26">
-        <v>9</v>
-      </c>
-      <c r="M14" s="26">
-        <v>9</v>
-      </c>
-      <c r="N14" s="20">
-        <v>9</v>
-      </c>
-      <c r="O14" s="20">
-        <v>9</v>
-      </c>
-      <c r="P14" s="20">
-        <v>9</v>
-      </c>
-      <c r="Q14" s="26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="26">
-        <v>10</v>
-      </c>
-      <c r="C15" s="26">
-        <v>10</v>
-      </c>
-      <c r="D15" s="26">
-        <v>10</v>
-      </c>
-      <c r="E15" s="20">
-        <v>10</v>
-      </c>
-      <c r="F15" s="20">
-        <v>10</v>
-      </c>
-      <c r="G15" s="20">
-        <v>10</v>
-      </c>
-      <c r="H15" s="26">
-        <v>10</v>
-      </c>
-      <c r="K15" s="26">
-        <v>10</v>
-      </c>
-      <c r="L15" s="26">
-        <v>10</v>
-      </c>
-      <c r="M15" s="26">
-        <v>10</v>
-      </c>
-      <c r="N15" s="20">
-        <v>10</v>
-      </c>
-      <c r="O15" s="20">
-        <v>10</v>
-      </c>
-      <c r="P15" s="20">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="26">
-        <v>11</v>
-      </c>
-      <c r="C16" s="26">
-        <v>11</v>
-      </c>
-      <c r="D16" s="26">
-        <v>11</v>
-      </c>
-      <c r="E16" s="20">
-        <v>11</v>
-      </c>
-      <c r="F16" s="20">
-        <v>11</v>
-      </c>
-      <c r="G16" s="20">
-        <v>11</v>
-      </c>
-      <c r="H16" s="26">
-        <v>11</v>
-      </c>
-      <c r="K16" s="26">
-        <v>11</v>
-      </c>
-      <c r="L16" s="26">
-        <v>11</v>
-      </c>
-      <c r="M16" s="26">
-        <v>11</v>
-      </c>
-      <c r="N16" s="20">
-        <v>11</v>
-      </c>
-      <c r="O16" s="20">
-        <v>11</v>
-      </c>
-      <c r="P16" s="20">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="26">
-        <v>12</v>
-      </c>
-      <c r="C17" s="26">
-        <v>12</v>
-      </c>
-      <c r="D17" s="26">
-        <v>12</v>
-      </c>
-      <c r="E17" s="20">
-        <v>12</v>
-      </c>
-      <c r="F17" s="20">
-        <v>12</v>
-      </c>
-      <c r="G17" s="20">
-        <v>12</v>
-      </c>
-      <c r="H17" s="26">
-        <v>12</v>
-      </c>
-      <c r="K17" s="26">
-        <v>12</v>
-      </c>
-      <c r="L17" s="26">
-        <v>12</v>
-      </c>
-      <c r="M17" s="26">
-        <v>12</v>
-      </c>
-      <c r="N17" s="20">
-        <v>12</v>
-      </c>
-      <c r="O17" s="20">
-        <v>12</v>
-      </c>
-      <c r="P17" s="20">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="26">
-        <v>13</v>
-      </c>
-      <c r="C18" s="26">
-        <v>13</v>
-      </c>
-      <c r="D18" s="26">
-        <v>13</v>
-      </c>
-      <c r="E18" s="20">
-        <v>13</v>
-      </c>
-      <c r="F18" s="20">
-        <v>13</v>
-      </c>
-      <c r="G18" s="20">
-        <v>13</v>
-      </c>
-      <c r="H18" s="26">
-        <v>13</v>
-      </c>
-      <c r="K18" s="26">
-        <v>13</v>
-      </c>
-      <c r="L18" s="26">
-        <v>13</v>
-      </c>
-      <c r="M18" s="26">
-        <v>13</v>
-      </c>
-      <c r="N18" s="20">
-        <v>13</v>
-      </c>
-      <c r="O18" s="20">
-        <v>13</v>
-      </c>
-      <c r="P18" s="20">
-        <v>13</v>
-      </c>
-      <c r="Q18" s="26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="26">
-        <v>14</v>
-      </c>
-      <c r="C19" s="26">
-        <v>14</v>
-      </c>
-      <c r="D19" s="26">
-        <v>14</v>
-      </c>
-      <c r="E19" s="20">
-        <v>14</v>
-      </c>
-      <c r="F19" s="20">
-        <v>14</v>
-      </c>
-      <c r="G19" s="20">
-        <v>14</v>
-      </c>
-      <c r="H19" s="26">
-        <v>14</v>
-      </c>
-      <c r="K19" s="26">
-        <v>14</v>
-      </c>
-      <c r="L19" s="26">
-        <v>14</v>
-      </c>
-      <c r="M19" s="26">
-        <v>14</v>
-      </c>
-      <c r="N19" s="20">
-        <v>14</v>
-      </c>
-      <c r="O19" s="20">
-        <v>14</v>
-      </c>
-      <c r="P19" s="20">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="26">
-        <v>15</v>
-      </c>
-      <c r="C20" s="26">
-        <v>15</v>
-      </c>
-      <c r="D20" s="26">
-        <v>15</v>
-      </c>
-      <c r="E20" s="20">
-        <v>15</v>
-      </c>
-      <c r="F20" s="20">
-        <v>15</v>
-      </c>
-      <c r="G20" s="20">
-        <v>15</v>
-      </c>
-      <c r="H20" s="26">
-        <v>15</v>
-      </c>
-      <c r="K20" s="26">
-        <v>15</v>
-      </c>
-      <c r="L20" s="26">
-        <v>15</v>
-      </c>
-      <c r="M20" s="26">
-        <v>15</v>
-      </c>
-      <c r="N20" s="20">
-        <v>15</v>
-      </c>
-      <c r="O20" s="20">
-        <v>15</v>
-      </c>
-      <c r="P20" s="20">
-        <v>15</v>
-      </c>
-      <c r="Q20" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="26">
-        <v>16</v>
-      </c>
-      <c r="C21" s="26">
-        <v>16</v>
-      </c>
-      <c r="D21" s="26">
-        <v>16</v>
-      </c>
-      <c r="E21" s="20">
-        <v>16</v>
-      </c>
-      <c r="F21" s="20">
-        <v>16</v>
-      </c>
-      <c r="G21" s="20">
-        <v>16</v>
-      </c>
-      <c r="H21" s="26">
-        <v>16</v>
-      </c>
-      <c r="K21" s="26">
-        <v>16</v>
-      </c>
-      <c r="L21" s="26">
-        <v>16</v>
-      </c>
-      <c r="M21" s="26">
-        <v>16</v>
-      </c>
-      <c r="N21" s="20">
-        <v>16</v>
-      </c>
-      <c r="O21" s="20">
-        <v>16</v>
-      </c>
-      <c r="P21" s="20">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="26">
-        <v>17</v>
-      </c>
-      <c r="C22" s="26">
-        <v>17</v>
-      </c>
-      <c r="D22" s="26">
-        <v>17</v>
-      </c>
-      <c r="E22" s="20">
-        <v>17</v>
-      </c>
-      <c r="F22" s="20">
-        <v>17</v>
-      </c>
-      <c r="G22" s="20">
-        <v>17</v>
-      </c>
-      <c r="H22" s="26">
-        <v>17</v>
-      </c>
-      <c r="K22" s="26">
-        <v>17</v>
-      </c>
-      <c r="L22" s="26">
-        <v>17</v>
-      </c>
-      <c r="M22" s="26">
-        <v>17</v>
-      </c>
-      <c r="N22" s="20">
-        <v>17</v>
-      </c>
-      <c r="O22" s="20">
-        <v>17</v>
-      </c>
-      <c r="P22" s="20">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="26">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="26">
-        <v>18</v>
-      </c>
-      <c r="C23" s="26">
-        <v>18</v>
-      </c>
-      <c r="D23" s="26">
-        <v>18</v>
-      </c>
-      <c r="E23" s="20">
-        <v>18</v>
-      </c>
-      <c r="F23" s="20">
-        <v>18</v>
-      </c>
-      <c r="G23" s="20">
-        <v>18</v>
-      </c>
-      <c r="H23" s="26">
-        <v>18</v>
-      </c>
-      <c r="K23" s="26">
-        <v>18</v>
-      </c>
-      <c r="L23" s="26">
-        <v>18</v>
-      </c>
-      <c r="M23" s="26">
-        <v>18</v>
-      </c>
-      <c r="N23" s="20">
-        <v>18</v>
-      </c>
-      <c r="O23" s="20">
-        <v>18</v>
-      </c>
-      <c r="P23" s="20">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="26">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
@@ -25988,10 +24251,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10BECC9-F4E2-4FBD-AD5C-07CBACE87722}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -26000,17 +24263,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="17" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -26019,15 +24290,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E854F05-6548-4849-B794-55C6562D87B6}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -26037,17 +24309,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="17" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -26064,12 +24344,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V27" sqref="V27"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/report_template/decayReport.xlsx
+++ b/report_template/decayReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\SensorManager\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9994D03D-9D24-48E1-A2F0-46D175B83852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4EE9FDD-703B-4862-A9AC-6FC6CCF8767A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="808" activeTab="6" xr2:uid="{C88833C2-A30C-4356-8FF2-473298530AD8}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="25740" windowHeight="11250" tabRatio="808" xr2:uid="{C88833C2-A30C-4356-8FF2-473298530AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="1.匯入_感測器小時值(基隆測站上)" sheetId="16" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="32">
   <si>
     <r>
       <rPr>
@@ -372,6 +372,10 @@
 *時間範圍為一年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -382,7 +386,7 @@
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -480,6 +484,14 @@
       <name val="Microsoft JhengHei Light"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -592,12 +604,15 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,6 +696,9 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,8 +785,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -14286,10 +14305,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947295E1-085A-430F-A28B-26C5CC63DE50}">
   <dimension ref="A1:N1506"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M28" sqref="M28"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -24049,10 +24068,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAA8C4A-520D-4007-9894-9E7359D16ADF}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -24073,116 +24092,116 @@
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="39"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="40"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
       <c r="J2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="43"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44"/>
     </row>
     <row r="3" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="31"/>
       <c r="J3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="35"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="36"/>
     </row>
     <row r="4" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46" t="s">
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="K4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="47" t="s">
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="28" t="s">
+      <c r="O4" s="49"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="25" t="s">
         <v>4</v>
       </c>
@@ -24201,8 +24220,8 @@
       <c r="G5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="J5" s="54"/>
+      <c r="H5" s="47"/>
+      <c r="J5" s="55"/>
       <c r="K5" s="25" t="s">
         <v>4</v>
       </c>
@@ -24221,10 +24240,367 @@
       <c r="P5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="29"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="Q5" s="30"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E11" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E14" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E15" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E17" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E20" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E23" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -24263,15 +24639,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="17" t="s">
         <v>30</v>
       </c>
@@ -24298,8 +24674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E854F05-6548-4849-B794-55C6562D87B6}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -24309,15 +24685,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="17" t="s">
         <v>25</v>
       </c>
@@ -24336,6 +24712,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24344,7 +24721,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
